--- a/SLAWOMIR_JOZEFOWICZ.xlsx
+++ b/SLAWOMIR_JOZEFOWICZ.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -98,13 +101,13 @@
     <t xml:space="preserve">Weekly</t>
   </si>
   <si>
-    <t xml:space="preserve">Cat Tail Bay</t>
+    <t xml:space="preserve">Cat TAIL BAY</t>
   </si>
   <si>
     <t xml:space="preserve">356 ERVIN T. RICHARDSON RD, NAKINA, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">SHP-South</t>
+    <t xml:space="preserve">HP-East Commercial</t>
   </si>
   <si>
     <t xml:space="preserve">JOZEFOWICZ, SLAWOMIR</t>
@@ -116,6 +119,9 @@
     <t xml:space="preserve">SPG240</t>
   </si>
   <si>
+    <t xml:space="preserve">0.26666666666666666</t>
+  </si>
+  <si>
     <t xml:space="preserve">MWF</t>
   </si>
   <si>
@@ -128,7 +134,7 @@
     <t xml:space="preserve">570 WOOD LN, WHITE OAK, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20833333333333334</t>
+    <t xml:space="preserve">0.21805555555555556</t>
   </si>
   <si>
     <t xml:space="preserve">CEDAR BAY 2 FARROWING</t>
@@ -140,16 +146,7 @@
     <t xml:space="preserve">390 WOOD LN, WHITE OAK, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 55781 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-843-1099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">652 BEAVER DAM RD, RED SPRINGS, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34097222222222223</t>
+    <t xml:space="preserve">0.21666666666666667</t>
   </si>
   <si>
     <t xml:space="preserve">Farm 57011 Farrowing</t>
@@ -164,25 +161,22 @@
     <t xml:space="preserve">0.27777777777777779</t>
   </si>
   <si>
+    <t xml:space="preserve">Farm 57021 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2687 E RAHYMAN RD, FAIRMONT, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32708333333333334</t>
+  </si>
+  <si>
     <t xml:space="preserve">Farm 76831 Farrowing</t>
   </si>
   <si>
     <t xml:space="preserve">2179 BARROW DRIVE, LITTLE ROCK, SC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33333333333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUNSTON FARMS 38671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-253-7070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1518, 7810-A DAWS CREEK RD, WINNABOW, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.43611111111111112</t>
+    <t xml:space="preserve">0.34930555555555554</t>
   </si>
   <si>
     <t xml:space="preserve">SEAWRIGHT SOW</t>
@@ -191,7 +185,7 @@
     <t xml:space="preserve">SR 1101 1200 BIG AVENUE RD, TABOR CITY, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38125000000000003</t>
+    <t xml:space="preserve">0.28125</t>
   </si>
 </sst>
 </file>
@@ -528,7 +522,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -536,26 +530,27 @@
     <col min="4" max="4" width="21.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="43.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="42.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="20.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -637,494 +632,442 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>7093</v>
+        <v>7068</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
         <v>6505</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" t="n">
+      <c r="N2"/>
+      <c r="O2" t="n">
         <v>110</v>
       </c>
-      <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" t="n">
-        <v>130</v>
-      </c>
-      <c r="S2"/>
+      <c r="R2"/>
+      <c r="S2" t="n">
+        <v>90</v>
+      </c>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="V2" t="n">
-        <v>250</v>
-      </c>
+      <c r="V2"/>
       <c r="W2" t="n">
-        <v>490</v>
+        <v>255</v>
       </c>
       <c r="X2" t="n">
-        <v>1.96787148594378</v>
-      </c>
-      <c r="Y2"/>
-      <c r="Z2"/>
+        <v>455</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.24137931034483</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="n">
         <v>7094</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
         <v>68021</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="n">
-        <v>95</v>
-      </c>
-      <c r="M3"/>
+        <v>34</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3" t="n">
+        <v>60</v>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q3"/>
+      <c r="P3"/>
+      <c r="Q3" t="n">
+        <v>60</v>
+      </c>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3" t="n">
-        <v>55</v>
-      </c>
-      <c r="U3"/>
+      <c r="T3"/>
+      <c r="U3" t="n">
+        <v>45</v>
+      </c>
       <c r="V3"/>
-      <c r="W3" t="n">
-        <v>195</v>
-      </c>
+      <c r="W3"/>
       <c r="X3" t="n">
-        <v>2.24137931034483</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3"/>
+        <v>165</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.22972972972973</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="n">
         <v>7094</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
         <v>68031</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="n">
-        <v>95</v>
-      </c>
-      <c r="M4"/>
+        <v>34</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" t="n">
+        <v>70</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q4"/>
+      <c r="P4"/>
+      <c r="Q4" t="n">
+        <v>70</v>
+      </c>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4" t="n">
-        <v>55</v>
-      </c>
-      <c r="U4"/>
+      <c r="T4"/>
+      <c r="U4" t="n">
+        <v>45</v>
+      </c>
       <c r="V4"/>
-      <c r="W4" t="n">
-        <v>195</v>
-      </c>
+      <c r="W4"/>
       <c r="X4" t="n">
-        <v>2.24137931034483</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4"/>
+        <v>185</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.2289156626506</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
         <v>7092</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>55781</v>
+        <v>57011</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="n">
-        <v>135</v>
-      </c>
-      <c r="M5"/>
+        <v>34</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>165</v>
+      </c>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="P5" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q5"/>
+      <c r="P5"/>
+      <c r="Q5" t="n">
+        <v>50</v>
+      </c>
       <c r="R5"/>
       <c r="S5"/>
-      <c r="T5" t="n">
-        <v>195</v>
-      </c>
-      <c r="U5"/>
+      <c r="T5"/>
+      <c r="U5" t="n">
+        <v>60</v>
+      </c>
       <c r="V5"/>
-      <c r="W5" t="n">
-        <v>460</v>
-      </c>
+      <c r="W5"/>
       <c r="X5" t="n">
-        <v>2.24390243902439</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5"/>
+        <v>275</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.5462962962963</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7069</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57021</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="n">
-        <v>7094</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="n">
-        <v>57011</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="n">
-        <v>130</v>
-      </c>
+      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6" t="n">
-        <v>60</v>
-      </c>
+      <c r="O6" t="n">
+        <v>130</v>
+      </c>
+      <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6" t="n">
-        <v>85</v>
-      </c>
+      <c r="S6" t="n">
+        <v>35</v>
+      </c>
+      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6" t="n">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="X6" t="n">
-        <v>1.64670658682635</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6"/>
+        <v>260</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.47619047619048</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n">
         <v>7081</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
         <v>76831</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" t="n">
+      <c r="N7"/>
+      <c r="O7" t="n">
         <v>115</v>
       </c>
-      <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" t="n">
-        <v>40</v>
-      </c>
-      <c r="S7"/>
+      <c r="R7"/>
+      <c r="S7" t="n">
+        <v>45</v>
+      </c>
       <c r="T7"/>
       <c r="U7"/>
-      <c r="V7" t="n">
-        <v>130</v>
-      </c>
+      <c r="V7"/>
       <c r="W7" t="n">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="X7" t="n">
-        <v>2.56756756756757</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7"/>
+        <v>270</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.19512195121951</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
         <v>7092</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>38671</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
+        <v>2516</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="n">
-        <v>125</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8" t="n">
-        <v>103</v>
-      </c>
+      <c r="O8" t="n">
+        <v>110</v>
+      </c>
+      <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8" t="n">
-        <v>160</v>
-      </c>
+      <c r="S8" t="n">
+        <v>80</v>
+      </c>
+      <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8" t="n">
-        <v>388</v>
+        <v>200</v>
       </c>
       <c r="X8" t="n">
-        <v>2.0972972972973</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7092</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.19101123595506</v>
+      </c>
+      <c r="Z8" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="n">
-        <v>2516</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9" t="n">
-        <v>125</v>
-      </c>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9" t="n">
-        <v>65</v>
-      </c>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9" t="n">
-        <v>200</v>
-      </c>
-      <c r="W9" t="n">
-        <v>390</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.82242990654206</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z9"/>
+      <c r="AA8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
